--- a/target/classes/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/target/classes/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="692">
   <si>
     <t>TestCases</t>
   </si>
@@ -2095,6 +2095,27 @@
   </si>
   <si>
     <t>091826828694610</t>
+  </si>
+  <si>
+    <t>6912997955</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>LakshmiNarain96027@example.net</t>
+  </si>
+  <si>
+    <t>1988-08-10</t>
+  </si>
+  <si>
+    <t>541355177562646</t>
+  </si>
+  <si>
+    <t>77f121d026d20396</t>
+  </si>
+  <si>
+    <t>990215102347172</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2606,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2697,16 +2718,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2921,13 +2942,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -3420,10 +3441,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="E2" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -3435,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -3595,7 +3616,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3612,7 +3633,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3629,7 +3650,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3646,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3663,7 +3684,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3732,7 +3753,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -3962,7 +3983,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -4119,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
